--- a/doc/Motor Control Design.xlsx
+++ b/doc/Motor Control Design.xlsx
@@ -261,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -279,52 +279,38 @@
     <xf numFmtId="48" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="16" formatCode="##0.0E+0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="16" formatCode="##0.0E+0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="16" formatCode="##0.0E+0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -359,30 +345,6 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
       </font>
       <numFmt numFmtId="165" formatCode="0.000"/>
       <fill>
@@ -405,6 +367,68 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="16" formatCode="##0.0E+0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="16" formatCode="##0.0E+0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -426,45 +450,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="16" formatCode="##0.0E+0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="16" formatCode="##0.0E+0"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -490,51 +492,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:P5" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:P5" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="A1:P5"/>
   <tableColumns count="16">
-    <tableColumn id="3" name="Pulse period (s)" dataDxfId="3">
+    <tableColumn id="3" name="Pulse period (s)" dataDxfId="15">
       <calculatedColumnFormula>2*B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Pol period (s)" dataDxfId="4">
+    <tableColumn id="1" name="Pol period (s)" dataDxfId="14">
       <calculatedColumnFormula>Tableau1[[#This Row],[Pulse period (s)]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Pulse ticks" dataDxfId="10">
+    <tableColumn id="4" name="Pulse ticks" dataDxfId="13">
       <calculatedColumnFormula>A2*Constants!$B$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Pol ticks" dataDxfId="9">
+    <tableColumn id="2" name="Pol ticks" dataDxfId="12">
       <calculatedColumnFormula>B2*Constants!$B$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Counter compare value" dataDxfId="16">
-      <calculatedColumnFormula>MOD(D2,65535)</calculatedColumnFormula>
+    <tableColumn id="5" name="Counter compare value" dataDxfId="0">
+      <calculatedColumnFormula>MOD(D2,65536)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Overflow target" dataDxfId="15">
+    <tableColumn id="6" name="Overflow target" dataDxfId="11">
       <calculatedColumnFormula>INT(D2/65535)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Pulses per sec" dataDxfId="14">
+    <tableColumn id="7" name="Pulses per sec" dataDxfId="10">
       <calculatedColumnFormula>1/A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Steps per sec" dataDxfId="13">
+    <tableColumn id="8" name="Steps per sec" dataDxfId="9">
       <calculatedColumnFormula>G2/Constants!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Rotation rate (deg/s)" dataDxfId="2">
+    <tableColumn id="9" name="Rotation rate (deg/s)" dataDxfId="8">
       <calculatedColumnFormula>H2*Constants!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Result deg for 1 s" dataDxfId="0"/>
-    <tableColumn id="11" name="Rev per sec" dataDxfId="1">
+    <tableColumn id="18" name="Result deg for 1 s" dataDxfId="7"/>
+    <tableColumn id="11" name="Rev per sec" dataDxfId="6">
       <calculatedColumnFormula>I2/360</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pace2ticksperpol" dataDxfId="12">
+    <tableColumn id="14" name="pace2ticksperpol" dataDxfId="5">
       <calculatedColumnFormula>Tableau1[[#This Row],[Pol ticks]]/Tableau1[[#This Row],[Pace (s/rad)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Rotation rate (rad/s)" dataDxfId="8">
+    <tableColumn id="10" name="Rotation rate (rad/s)" dataDxfId="4">
       <calculatedColumnFormula>I2*PI()/180</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Pace (s/rad)" dataDxfId="7">
+    <tableColumn id="13" name="Pace (s/rad)" dataDxfId="3">
       <calculatedColumnFormula>1/Tableau1[[#This Row],[Rotation rate (rad/s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="T std dev" dataDxfId="5"/>
-    <tableColumn id="16" name="Jitter (%)" dataDxfId="6">
+    <tableColumn id="15" name="T std dev" dataDxfId="2"/>
+    <tableColumn id="16" name="Jitter (%)" dataDxfId="1">
       <calculatedColumnFormula>Tableau1[[#This Row],[T std dev]]/Tableau1[[#This Row],[Pulse period (s)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -808,7 +810,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,8 +898,8 @@
         <f>B2*Constants!$B$1</f>
         <v>956.12800000000004</v>
       </c>
-      <c r="E2" s="7">
-        <f>MOD(D2,65535)</f>
+      <c r="E2" s="17">
+        <f t="shared" ref="E2:E5" si="0">MOD(D2,65536)</f>
         <v>956.12800000000004</v>
       </c>
       <c r="F2" s="7">
@@ -960,8 +962,8 @@
         <v>69824</v>
       </c>
       <c r="E3" s="7">
-        <f>MOD(D3,65535)</f>
-        <v>4289</v>
+        <f t="shared" si="0"/>
+        <v>4288</v>
       </c>
       <c r="F3" s="7">
         <f>INT(D3/65535)</f>
@@ -1023,8 +1025,8 @@
         <v>122736</v>
       </c>
       <c r="E4" s="7">
-        <f>MOD(D4,65535)</f>
-        <v>57201</v>
+        <f t="shared" si="0"/>
+        <v>57200</v>
       </c>
       <c r="F4" s="7">
         <f>INT(D4/65535)</f>
@@ -1086,8 +1088,8 @@
         <v>490936</v>
       </c>
       <c r="E5" s="7">
-        <f>MOD(D5,65535)</f>
-        <v>32191</v>
+        <f t="shared" si="0"/>
+        <v>32184</v>
       </c>
       <c r="F5" s="7">
         <f>INT(D5/65535)</f>

--- a/doc/Motor Control Design.xlsx
+++ b/doc/Motor Control Design.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Speed" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Output" sheetId="3" r:id="rId2"/>
-    <sheet name="Constants" sheetId="2" r:id="rId3"/>
+    <sheet name="Constants" sheetId="2" r:id="rId1"/>
+    <sheet name="Speed" sheetId="1" r:id="rId2"/>
+    <sheet name="Test Output" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
-  <si>
-    <t>Pol ticks</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Pulse ticks</t>
   </si>
@@ -67,16 +64,10 @@
     <t>Clock Frequency (Hz)</t>
   </si>
   <si>
-    <t>Pol period (s)</t>
-  </si>
-  <si>
     <t>Pulse period (s)</t>
   </si>
   <si>
     <t>Pace (s/rad)</t>
-  </si>
-  <si>
-    <t>pace2ticksperpol</t>
   </si>
   <si>
     <t>T std dev</t>
@@ -197,9 +188,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="##0.00E+0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -218,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,18 +219,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -246,22 +232,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -271,26 +246,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="48" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="48" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="48" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="48" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="48" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="48" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="166" formatCode="##0.00E+0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -355,45 +350,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="16" formatCode="##0.0E+0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="16" formatCode="##0.0E+0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.000"/>
       <fill>
         <patternFill patternType="none">
@@ -433,7 +389,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -442,18 +398,6 @@
         <b/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="16" formatCode="##0.0E+0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -492,51 +436,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:P5" totalsRowShown="0" dataDxfId="16">
-  <autoFilter ref="A1:P5"/>
-  <tableColumns count="16">
-    <tableColumn id="3" name="Pulse period (s)" dataDxfId="15">
-      <calculatedColumnFormula>2*B2</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:M5" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A1:M5"/>
+  <tableColumns count="13">
+    <tableColumn id="3" name="Pulse period (s)" dataDxfId="12">
+      <calculatedColumnFormula>2*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Pol period (s)" dataDxfId="14">
-      <calculatedColumnFormula>Tableau1[[#This Row],[Pulse period (s)]]/2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="Pulse ticks" dataDxfId="13">
+    <tableColumn id="4" name="Pulse ticks" dataDxfId="11">
       <calculatedColumnFormula>A2*Constants!$B$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Pol ticks" dataDxfId="12">
-      <calculatedColumnFormula>B2*Constants!$B$1</calculatedColumnFormula>
+    <tableColumn id="5" name="Counter compare value" dataDxfId="10">
+      <calculatedColumnFormula>MOD(Tableau1[[#This Row],[Pulse ticks]],65536)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Counter compare value" dataDxfId="0">
-      <calculatedColumnFormula>MOD(D2,65536)</calculatedColumnFormula>
+    <tableColumn id="6" name="Overflow target" dataDxfId="9">
+      <calculatedColumnFormula>INT(Tableau1[[#This Row],[Pulse ticks]]/65535)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Overflow target" dataDxfId="11">
-      <calculatedColumnFormula>INT(D2/65535)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="Pulses per sec" dataDxfId="10">
+    <tableColumn id="7" name="Pulses per sec" dataDxfId="8">
       <calculatedColumnFormula>1/A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Steps per sec" dataDxfId="9">
-      <calculatedColumnFormula>G2/Constants!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" name="Steps per sec" dataDxfId="7">
+      <calculatedColumnFormula>E2/Constants!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Rotation rate (deg/s)" dataDxfId="8">
-      <calculatedColumnFormula>H2*Constants!$B$4</calculatedColumnFormula>
+    <tableColumn id="9" name="Rotation rate (deg/s)" dataDxfId="6">
+      <calculatedColumnFormula>F2*Constants!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Result deg for 1 s" dataDxfId="7"/>
-    <tableColumn id="11" name="Rev per sec" dataDxfId="6">
-      <calculatedColumnFormula>I2/360</calculatedColumnFormula>
+    <tableColumn id="18" name="Result deg for 1 s" dataDxfId="2"/>
+    <tableColumn id="11" name="Rev per sec" dataDxfId="0">
+      <calculatedColumnFormula>G2/360</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pace2ticksperpol" dataDxfId="5">
-      <calculatedColumnFormula>Tableau1[[#This Row],[Pol ticks]]/Tableau1[[#This Row],[Pace (s/rad)]]</calculatedColumnFormula>
+    <tableColumn id="10" name="Rotation rate (rad/s)" dataDxfId="1">
+      <calculatedColumnFormula>G2*PI()/180</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Rotation rate (rad/s)" dataDxfId="4">
-      <calculatedColumnFormula>I2*PI()/180</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="Pace (s/rad)" dataDxfId="3">
+    <tableColumn id="13" name="Pace (s/rad)" dataDxfId="5">
       <calculatedColumnFormula>1/Tableau1[[#This Row],[Rotation rate (rad/s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="T std dev" dataDxfId="2"/>
-    <tableColumn id="16" name="Jitter (%)" dataDxfId="1">
+    <tableColumn id="15" name="T std dev" dataDxfId="4"/>
+    <tableColumn id="16" name="Jitter (%)" dataDxfId="3">
       <calculatedColumnFormula>Tableau1[[#This Row],[T std dev]]/Tableau1[[#This Row],[Pulse period (s)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -807,458 +742,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f>360/B2</f>
+        <v>1.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>1.19516E-4</v>
       </c>
-      <c r="B2" s="10">
-        <f>Tableau1[[#This Row],[Pulse period (s)]]/2</f>
-        <v>5.9757999999999999E-5</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="6">
         <f>A2*Constants!$B$1</f>
-        <v>1912.2560000000001</v>
-      </c>
-      <c r="D2" s="6">
-        <f>B2*Constants!$B$1</f>
-        <v>956.12800000000004</v>
-      </c>
-      <c r="E2" s="17">
-        <f t="shared" ref="E2:E5" si="0">MOD(D2,65536)</f>
-        <v>956.12800000000004</v>
-      </c>
-      <c r="F2" s="7">
-        <f>INT(D2/65535)</f>
+        <v>119.51600000000001</v>
+      </c>
+      <c r="C2" s="15">
+        <f>MOD(Tableau1[[#This Row],[Pulse ticks]],65536)</f>
+        <v>119.51600000000001</v>
+      </c>
+      <c r="D2" s="7">
+        <f>INT(Tableau1[[#This Row],[Pulse ticks]]/65535)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="E2" s="8">
         <f>1/A2</f>
         <v>8367.080558251615</v>
       </c>
-      <c r="H2" s="8">
-        <f>G2/Constants!$B$3</f>
+      <c r="F2" s="8">
+        <f>E2/Constants!$B$3</f>
         <v>1045.8850697814519</v>
       </c>
-      <c r="I2" s="8">
-        <f>H2*Constants!$B$4</f>
+      <c r="G2" s="8">
+        <f>F2*Constants!$B$4</f>
         <v>1882.5931256066135</v>
       </c>
-      <c r="J2" s="16">
+      <c r="H2" s="14">
         <v>1882.8</v>
       </c>
-      <c r="K2" s="5">
-        <f>I2/360</f>
+      <c r="I2" s="16">
+        <f>G2/360</f>
         <v>5.2294253489072595</v>
       </c>
-      <c r="L2" s="5">
-        <f>Tableau1[[#This Row],[Pol ticks]]/Tableau1[[#This Row],[Pace (s/rad)]]</f>
-        <v>31415.926535897936</v>
-      </c>
-      <c r="M2" s="11">
-        <f>I2*PI()/180</f>
+      <c r="J2" s="9">
+        <f>G2*PI()/180</f>
         <v>32.857448517246574</v>
       </c>
-      <c r="N2" s="8">
+      <c r="K2" s="8">
         <f>1/Tableau1[[#This Row],[Rotation rate (rad/s)]]</f>
         <v>3.0434499485713539E-2</v>
       </c>
-      <c r="O2" s="13">
+      <c r="L2" s="11">
         <v>4.5059600000000002E-7</v>
       </c>
-      <c r="P2" s="12">
+      <c r="M2" s="10">
         <f>Tableau1[[#This Row],[T std dev]]/Tableau1[[#This Row],[Pulse period (s)]]</f>
         <v>3.7701730312259449E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>8.7279999999999996E-3</v>
       </c>
-      <c r="B3" s="10">
-        <f>Tableau1[[#This Row],[Pulse period (s)]]/2</f>
-        <v>4.3639999999999998E-3</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="6">
         <f>A3*Constants!$B$1</f>
-        <v>139648</v>
-      </c>
-      <c r="D3" s="6">
-        <f>B3*Constants!$B$1</f>
-        <v>69824</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" si="0"/>
-        <v>4288</v>
-      </c>
-      <c r="F3" s="7">
-        <f>INT(D3/65535)</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
+        <v>8728</v>
+      </c>
+      <c r="C3" s="15">
+        <f>MOD(Tableau1[[#This Row],[Pulse ticks]],65536)</f>
+        <v>8728</v>
+      </c>
+      <c r="D3" s="7">
+        <f>INT(Tableau1[[#This Row],[Pulse ticks]]/65535)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
         <f>1/A3</f>
         <v>114.57378551787352</v>
       </c>
-      <c r="H3" s="8">
-        <f>G3/Constants!$B$3</f>
+      <c r="F3" s="8">
+        <f>E3/Constants!$B$3</f>
         <v>14.32172318973419</v>
       </c>
-      <c r="I3" s="8">
-        <f>H3*Constants!$B$4</f>
+      <c r="G3" s="8">
+        <f>F3*Constants!$B$4</f>
         <v>25.779101741521544</v>
       </c>
-      <c r="J3" s="16">
+      <c r="H3" s="14">
         <v>25.2</v>
       </c>
-      <c r="K3" s="5">
-        <f>I3/360</f>
+      <c r="I3" s="16">
+        <f>G3/360</f>
         <v>7.1608615948670948E-2</v>
       </c>
-      <c r="L3" s="5">
-        <f>Tableau1[[#This Row],[Pol ticks]]/Tableau1[[#This Row],[Pace (s/rad)]]</f>
-        <v>31415.926535897936</v>
-      </c>
-      <c r="M3" s="11">
-        <f>I3*PI()/180</f>
+      <c r="J3" s="9">
+        <f>G3*PI()/180</f>
         <v>0.4499302035961551</v>
       </c>
-      <c r="N3" s="8">
+      <c r="K3" s="8">
         <f>1/Tableau1[[#This Row],[Rotation rate (rad/s)]]</f>
         <v>2.2225669492896998</v>
       </c>
-      <c r="O3" s="13">
+      <c r="L3" s="11">
         <v>4.4247000000000002E-7</v>
       </c>
-      <c r="P3" s="12">
+      <c r="M3" s="10">
         <f>Tableau1[[#This Row],[T std dev]]/Tableau1[[#This Row],[Pulse period (s)]]</f>
         <v>5.0695462878093495E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>1.5342E-2</v>
       </c>
-      <c r="B4" s="10">
-        <f>Tableau1[[#This Row],[Pulse period (s)]]/2</f>
-        <v>7.6709999999999999E-3</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="6">
         <f>A4*Constants!$B$1</f>
-        <v>245472</v>
-      </c>
-      <c r="D4" s="6">
-        <f>B4*Constants!$B$1</f>
-        <v>122736</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>57200</v>
-      </c>
-      <c r="F4" s="7">
-        <f>INT(D4/65535)</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
+        <v>15342</v>
+      </c>
+      <c r="C4" s="15">
+        <f>MOD(Tableau1[[#This Row],[Pulse ticks]],65536)</f>
+        <v>15342</v>
+      </c>
+      <c r="D4" s="7">
+        <f>INT(Tableau1[[#This Row],[Pulse ticks]]/65535)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
         <f>1/A4</f>
         <v>65.180550123843048</v>
       </c>
-      <c r="H4" s="8">
-        <f>G4/Constants!$B$3</f>
+      <c r="F4" s="8">
+        <f>E4/Constants!$B$3</f>
         <v>8.147568765480381</v>
       </c>
-      <c r="I4" s="8">
-        <f>H4*Constants!$B$4</f>
+      <c r="G4" s="8">
+        <f>F4*Constants!$B$4</f>
         <v>14.665623777864687</v>
       </c>
-      <c r="J4" s="16">
+      <c r="H4" s="14">
         <v>14.4</v>
       </c>
-      <c r="K4" s="5">
-        <f>I4/360</f>
+      <c r="I4" s="16">
+        <f>G4/360</f>
         <v>4.0737843827401907E-2</v>
       </c>
-      <c r="L4" s="5">
-        <f>Tableau1[[#This Row],[Pol ticks]]/Tableau1[[#This Row],[Pace (s/rad)]]</f>
-        <v>31415.926535897932</v>
-      </c>
-      <c r="M4" s="11">
-        <f>I4*PI()/180</f>
+      <c r="J4" s="9">
+        <f>G4*PI()/180</f>
         <v>0.25596342178250825</v>
       </c>
-      <c r="N4" s="8">
+      <c r="K4" s="8">
         <f>1/Tableau1[[#This Row],[Rotation rate (rad/s)]]</f>
         <v>3.9068082190653732</v>
       </c>
-      <c r="O4" s="13">
+      <c r="L4" s="11">
         <v>3.4638000000000001E-7</v>
       </c>
-      <c r="P4" s="12">
+      <c r="M4" s="10">
         <f>Tableau1[[#This Row],[T std dev]]/Tableau1[[#This Row],[Pulse period (s)]]</f>
         <v>2.2577238951896756E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>6.1366999999999998E-2</v>
       </c>
-      <c r="B5" s="10">
-        <f>Tableau1[[#This Row],[Pulse period (s)]]/2</f>
-        <v>3.0683499999999999E-2</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="6">
         <f>A5*Constants!$B$1</f>
-        <v>981872</v>
-      </c>
-      <c r="D5" s="6">
-        <f>B5*Constants!$B$1</f>
-        <v>490936</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>32184</v>
-      </c>
-      <c r="F5" s="7">
-        <f>INT(D5/65535)</f>
-        <v>7</v>
-      </c>
-      <c r="G5" s="8">
+        <v>61367</v>
+      </c>
+      <c r="C5" s="15">
+        <f>MOD(Tableau1[[#This Row],[Pulse ticks]],65536)</f>
+        <v>61367</v>
+      </c>
+      <c r="D5" s="7">
+        <f>INT(Tableau1[[#This Row],[Pulse ticks]]/65535)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
         <f>1/A5</f>
         <v>16.295403066794858</v>
       </c>
-      <c r="H5" s="8">
-        <f>G5/Constants!$B$3</f>
+      <c r="F5" s="8">
+        <f>E5/Constants!$B$3</f>
         <v>2.0369253833493572</v>
       </c>
-      <c r="I5" s="8">
-        <f>H5*Constants!$B$4</f>
+      <c r="G5" s="8">
+        <f>F5*Constants!$B$4</f>
         <v>3.666465690028843</v>
       </c>
-      <c r="J5" s="16">
+      <c r="H5" s="14">
         <v>3.6</v>
       </c>
-      <c r="K5" s="5">
-        <f>I5/360</f>
+      <c r="I5" s="16">
+        <f>G5/360</f>
         <v>1.0184626916746787E-2</v>
       </c>
-      <c r="L5" s="5">
-        <f>Tableau1[[#This Row],[Pol ticks]]/Tableau1[[#This Row],[Pace (s/rad)]]</f>
-        <v>31415.926535897932</v>
-      </c>
-      <c r="M5" s="11">
-        <f>I5*PI()/180</f>
+      <c r="J5" s="9">
+        <f>G5*PI()/180</f>
         <v>6.3991898202409137E-2</v>
       </c>
-      <c r="N5" s="8">
+      <c r="K5" s="8">
         <f>1/Tableau1[[#This Row],[Rotation rate (rad/s)]]</f>
         <v>15.626978228352545</v>
       </c>
-      <c r="O5" s="13">
+      <c r="L5" s="11">
         <v>2.9032000000000002E-7</v>
       </c>
-      <c r="P5" s="12">
+      <c r="M5" s="10">
         <f>Tableau1[[#This Row],[T std dev]]/Tableau1[[#This Row],[Pulse period (s)]]</f>
         <v>4.7308814183518838E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
-        <f>956/16000000</f>
-        <v>5.9750000000000002E-5</v>
-      </c>
+      <c r="L13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1272,7 +1168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
@@ -1286,293 +1182,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>19</v>
+      <c r="A1" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>19</v>
+      <c r="A14" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>19</v>
+      <c r="A27" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>19</v>
+      <c r="A40" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1">
-        <v>16000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <f>360/B2</f>
-        <v>1.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>